--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value264.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value264.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6457732651989909</v>
+        <v>1.832216024398804</v>
       </c>
       <c r="B1">
-        <v>0.7764590582298756</v>
+        <v>2.2420814037323</v>
       </c>
       <c r="C1">
-        <v>1.034845427354071</v>
+        <v>2.394904375076294</v>
       </c>
       <c r="D1">
-        <v>2.447959803369726</v>
+        <v>2.866952657699585</v>
       </c>
       <c r="E1">
-        <v>3.627048460196803</v>
+        <v>2.350305080413818</v>
       </c>
     </row>
   </sheetData>
